--- a/99_external_assessments/gsl_egg_se/gsl_egg_se_assessment.xlsx
+++ b/99_external_assessments/gsl_egg_se/gsl_egg_se_assessment.xlsx
@@ -1,18 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="12420" windowHeight="4272"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="12420" windowHeight="4275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Emilie Flemer</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Emilie Flemer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jake, I changed the name from "Bird egg selenium" to Selenium (Eggs), so that things will map to ATTAINS parameter name.
+See the IR translation workbook, R3172MasterParamList worksheet tab.
+Path to file: P:\WQ\Integrated Report\IR_2020\2020-IR-assessments\translations</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75,9 +111,6 @@
     <t>GSL egg Se Saltair</t>
   </si>
   <si>
-    <t>Bird egg selenium</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
@@ -94,13 +127,16 @@
   </si>
   <si>
     <t>Gilbert Bay</t>
+  </si>
+  <si>
+    <t>Selenium (Eggs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,12 +275,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,6 +316,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -629,27 +672,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1013,22 +1056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1081,19 +1126,19 @@
         <v>-112.145196</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1113,19 +1158,19 @@
         <v>-112.24328300000001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1145,19 +1190,19 @@
         <v>-111.98869999999999</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1177,23 +1222,24 @@
         <v>-112.17443299999999</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1203,7 +1249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1215,7 +1261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/99_external_assessments/gsl_egg_se/gsl_egg_se_assessment.xlsx
+++ b/99_external_assessments/gsl_egg_se/gsl_egg_se_assessment.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="12420" windowHeight="4275"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="12420" windowHeight="4272"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="asmnt" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1060,20 +1060,20 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1249,7 +1249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1261,7 +1261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
